--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic 2011 Promos (PM11).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic 2011 Promos (PM11).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,203 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ancient Hellkite</t>
+          <t>('Ancient Hellkite', ['{4}{R}{R}{R}', 'Creature — Dragon', 'Flying', '{R}: Ancient Hellkite deals 1 damage to target creature defending player controls. Activate this ability only if Ancient Hellkite is attacking.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{R}{R}{R}</t>
+          <t>('Birds of Paradise', ['{G}', 'Creature — Bird', 'Flying', '{T}: Add one mana of any color.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Dragon</t>
+          <t>("Liliana's Specter", ['{1}{B}{B}', 'Creature — Specter', 'Flying', 'When Liliana’s Specter enters the battlefield, each opponent discards a card.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Mitotic Slime', ['{4}{G}', 'Creature — Ooze', 'When Mitotic Slime dies, create two 2/2 green Ooze creature tokens. They have “When this creature dies, create two 1/1 green Ooze creature tokens.”', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{R}: Ancient Hellkite deals 1 damage to target creature defending player controls. Activate this ability only if Ancient Hellkite is attacking.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Birds of Paradise</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{T}: Add one mana of any color.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Liliana's Specter</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{1}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Specter</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>When Liliana’s Specter enters the battlefield, each opponent discards a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mitotic Slime</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>{4}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Creature — Ooze</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>When Mitotic Slime dies, create two 2/2 green Ooze creature tokens. They have “When this creature dies, create two 1/1 green Ooze creature tokens.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sun Titan</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{4}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Creature — Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Whenever Sun Titan enters the battlefield or attacks, you may return target permanent card with converted mana cost 3 or less from your graveyard to the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>6/6</t>
+          <t>('Sun Titan', ['{4}{W}{W}', 'Creature — Giant', 'Vigilance', 'Whenever Sun Titan enters the battlefield or attacks, you may return target permanent card with converted mana cost 3 or less from your graveyard to the battlefield.', '6/6'])</t>
         </is>
       </c>
     </row>
